--- a/data/trans_camb/P15A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.201726035922422</v>
+        <v>-5.253856941126193</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.66343729039033</v>
+        <v>-5.655717228478064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.700357995457152</v>
+        <v>-7.715606496022074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.836065607360829</v>
+        <v>-2.045944367576156</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.660998823334842</v>
+        <v>-2.812775982096648</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.795554209264125</v>
+        <v>-1.961758206281296</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.209012996078747</v>
+        <v>-3.129387853562562</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.669576192404628</v>
+        <v>-3.561244111920191</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.11838572111559</v>
+        <v>-4.310312505701344</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6750855770726949</v>
+        <v>0.5551586551009738</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5805449561769742</v>
+        <v>0.2427528065285894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9883608786791078</v>
+        <v>-1.178950465661161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.949605727445398</v>
+        <v>1.682848833786264</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6854423718170667</v>
+        <v>0.652560460793937</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.975825678391558</v>
+        <v>4.446307551639233</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4672945342567099</v>
+        <v>0.4587457808498671</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.0180734785564401</v>
+        <v>-0.2088415256366201</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3460434551275768</v>
+        <v>0.3285635245709869</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.405320865716802</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5035735565562813</v>
+        <v>-0.5035735565562814</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6208687945854877</v>
+        <v>-0.6275924489708278</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6775316487108682</v>
+        <v>-0.6870975382842538</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9457243991558557</v>
+        <v>-0.9453375394692699</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6144994630525826</v>
+        <v>-0.6658206030353572</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8608807254258443</v>
+        <v>-0.8432947247506225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6877209499967648</v>
+        <v>-0.7522037132332409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5570091061849156</v>
+        <v>-0.5650147587506407</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6674000520445474</v>
+        <v>-0.6446719169887674</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7761844975090336</v>
+        <v>-0.8198880615890859</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1528321353609979</v>
+        <v>0.1494032475371111</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.143649517894015</v>
+        <v>0.05078340006842066</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.01098522358922002</v>
+        <v>0.03462514583891899</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.492520963221287</v>
+        <v>1.204853457054219</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6373296288882472</v>
+        <v>0.6547885765078063</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.126524569051349</v>
+        <v>3.154684157468823</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1566420977327096</v>
+        <v>0.1227665840620978</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.006280584770706755</v>
+        <v>-0.03699471431801996</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1349974980595392</v>
+        <v>0.1223677392143537</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.21253274602509</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.803402223366676</v>
+        <v>-1.803402223366677</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.211627454367568</v>
+        <v>-2.361160998627873</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.148593760928404</v>
+        <v>-3.005184179703946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.971842752127103</v>
+        <v>-4.052600537108631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.999372640992297</v>
+        <v>-2.813904233683553</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.125787294179563</v>
+        <v>-3.274547568584495</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.754552087777303</v>
+        <v>-3.656752265957067</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.872946557378437</v>
+        <v>-2.053834416740475</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.6700801275469</v>
+        <v>-2.67465133590314</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.388071570819677</v>
+        <v>-3.243965168082144</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.428791658573122</v>
+        <v>2.432161896263496</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.250665196708985</v>
+        <v>1.617579392552891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.311616683311079</v>
+        <v>1.478748550528755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8758890760776717</v>
+        <v>0.8977495216407603</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4872586975232402</v>
+        <v>0.3196261966403801</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.3923171721146491</v>
+        <v>-0.3987499980753462</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.163788593978506</v>
+        <v>1.084746916587859</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3128834192702177</v>
+        <v>0.3156080301565449</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.3311230504798697</v>
+        <v>-0.1729444732964019</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.3085182438031643</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.4588597616416836</v>
+        <v>-0.4588597616416837</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3782931202190761</v>
+        <v>-0.3929061135560731</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.551753669711176</v>
+        <v>-0.5391156414702308</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7207190376716502</v>
+        <v>-0.7240416026086146</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7494313449771268</v>
+        <v>-0.7041369299244978</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7690716595430783</v>
+        <v>-0.7855293523076889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9090231977596493</v>
+        <v>-0.9124360245164653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4111526795695798</v>
+        <v>-0.4379676760944919</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5535776830957707</v>
+        <v>-0.5650598070626717</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7366968798208055</v>
+        <v>-0.7077837751392264</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6900141585290512</v>
+        <v>0.6527369648105108</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3666374459457362</v>
+        <v>0.4653219744117813</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3810966047778058</v>
+        <v>0.3799574007236667</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5368312914841414</v>
+        <v>0.5299984122788154</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2800848032133182</v>
+        <v>0.2371795613074944</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05618350085286224</v>
+        <v>-0.00124254953255832</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3832886575102864</v>
+        <v>0.3566358345299651</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1673947561043476</v>
+        <v>0.1191208595864809</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04701037892296317</v>
+        <v>-0.03695088702920166</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.6901820535271018</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.4277833714689424</v>
+        <v>-0.4277833714689427</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.322980268764031</v>
@@ -1083,7 +1083,7 @@
         <v>-0.2493016753550459</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.2860476869434962</v>
+        <v>-0.2860476869434966</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.1954391392609059</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.828334253533095</v>
+        <v>-1.685142554507617</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.210815254472305</v>
+        <v>-0.9768504670193002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.055915323573007</v>
+        <v>-2.048614892225471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.858323016496784</v>
+        <v>-1.695651176353142</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.779639679784946</v>
+        <v>-1.629970475249783</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.847305608886801</v>
+        <v>-1.631684879486049</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.220498806603664</v>
+        <v>-1.213739719433524</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8294313777055699</v>
+        <v>-0.8463826892515522</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.444078928557864</v>
+        <v>-1.447100616730879</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.663299082844858</v>
+        <v>1.66679371716651</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.548314197689407</v>
+        <v>2.603906687841063</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.517802392666902</v>
+        <v>1.28485733802046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.076926315877583</v>
+        <v>1.143054322063686</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.22778727649575</v>
+        <v>1.412826192261454</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.96691732526265</v>
+        <v>1.078895983283919</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.002667541674934</v>
+        <v>1.049756304628924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.46379261899451</v>
+        <v>1.585629584007446</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7741463116612661</v>
+        <v>0.8167892880754676</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2952147850383533</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1829777743507016</v>
+        <v>-0.1829777743507017</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1660564717225051</v>
@@ -1188,7 +1188,7 @@
         <v>-0.128175497414716</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1470680231334013</v>
+        <v>-0.1470680231334015</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.09158789753910997</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5980996820600507</v>
+        <v>-0.546769628472025</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3794599264787775</v>
+        <v>-0.3140644199387637</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6434758215172516</v>
+        <v>-0.6592015996910301</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6702055430955848</v>
+        <v>-0.6413206986373042</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6702132313951973</v>
+        <v>-0.6352794633866923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6412836828002241</v>
+        <v>-0.6175126401110952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4723200503604256</v>
+        <v>-0.4832694739930867</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3253693785144883</v>
+        <v>-0.3081219770853313</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5133912910767694</v>
+        <v>-0.5135308897110766</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.277230000267685</v>
+        <v>1.026358783317844</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.7147940670719</v>
+        <v>1.786306285931029</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.006075169559906</v>
+        <v>0.9657080801668501</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.001217134862217</v>
+        <v>0.9812666527319233</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.034840069210976</v>
+        <v>1.289052435079932</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9323028238687846</v>
+        <v>0.9461398269337291</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6189936089750707</v>
+        <v>0.7521838027790549</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9266614086802992</v>
+        <v>1.039860470738281</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4988341083757074</v>
+        <v>0.5805741657042496</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.834672958232238</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.5483960771491991</v>
+        <v>-0.5483960771492005</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.306229436951658</v>
@@ -1306,7 +1306,7 @@
         <v>-1.077593796817686</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.3624550495494961</v>
+        <v>-0.3624550495494958</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.888963593529049</v>
+        <v>-4.738066566273708</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.439371246580786</v>
+        <v>-4.065476193876285</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.759554029036528</v>
+        <v>-3.045497529919381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6579753467506696</v>
+        <v>-0.5785323627059875</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.868951142910862</v>
+        <v>-1.969623473734975</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.861118816824361</v>
+        <v>-1.850142400557327</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.05713071812735</v>
+        <v>-2.150827698116665</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.442820265697924</v>
+        <v>-2.536668381857549</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.747148132628761</v>
+        <v>-1.920612414027348</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.7462349763096111</v>
+        <v>-0.5906053792749153</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1129574408794129</v>
+        <v>0.2801018880224009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.875219442997379</v>
+        <v>1.565422112092082</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.194607160552819</v>
+        <v>3.197749229147239</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.147352815492521</v>
+        <v>1.237373430118463</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.188615042558587</v>
+        <v>1.188300128263028</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8130572674572616</v>
+        <v>0.720669750882809</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1381949039626382</v>
+        <v>0.1619038992765876</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.066906420692056</v>
+        <v>0.8875053204774851</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4874885539407205</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1457136049434193</v>
+        <v>-0.1457136049434197</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.696899904934852</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3818369095687667</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1284331038154528</v>
+        <v>-0.1284331038154527</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8825231150970128</v>
+        <v>-0.8646844868284075</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7827394207807487</v>
+        <v>-0.7806003772875441</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5387886608840881</v>
+        <v>-0.5940503332202506</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3023943802517283</v>
+        <v>-0.2426364973702484</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7009901443744992</v>
+        <v>-0.7284567596699278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6058095165746258</v>
+        <v>-0.5892932953881342</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5645233147159981</v>
+        <v>-0.5603120544019508</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6586691727410044</v>
+        <v>-0.6598574660128915</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4769437713382276</v>
+        <v>-0.4957022636514646</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.213682864451347</v>
+        <v>-0.1312431884521811</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.09761070378139788</v>
+        <v>0.1786206453764859</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9090289943329461</v>
+        <v>0.5978776252323098</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.812109560162264</v>
+        <v>3.021483952224067</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.103389926968638</v>
+        <v>1.448069708822969</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.235665773327093</v>
+        <v>1.303714863754945</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4319261116031433</v>
+        <v>0.3629742214853182</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07374848573140785</v>
+        <v>0.1232136889917431</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.525552836612492</v>
+        <v>0.4330972080413794</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.457921335064301</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.09035642117617565</v>
+        <v>-0.0903564211761753</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.3459777032996572</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.68625231493459</v>
+        <v>-3.408423134499329</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.745125187928337</v>
+        <v>-3.575969893592564</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.20039367048479</v>
+        <v>-3.367052075436214</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.629121248120695</v>
+        <v>-1.690106113556042</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.654511671296038</v>
+        <v>-1.628611225783625</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.030747816695343</v>
+        <v>-2.3801222745254</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.705321717940533</v>
+        <v>-1.956343704798633</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.053649119822868</v>
+        <v>-2.004960023006121</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.024037817116446</v>
+        <v>-2.059516077432687</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2979487447548899</v>
+        <v>0.2726076471256464</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05763024522338036</v>
+        <v>0.01599534865881404</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3427427632400406</v>
+        <v>0.2627547280623466</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.877783268595222</v>
+        <v>2.792057109187167</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.65301790013163</v>
+        <v>2.647689614194749</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.707105727919218</v>
+        <v>1.381257851783104</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.141149190274223</v>
+        <v>1.019422323875577</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8818498028749859</v>
+        <v>0.8958422409734377</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4793925848928481</v>
+        <v>0.5364180732654453</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1874059654226466</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.03697869272738451</v>
+        <v>-0.03697869272738437</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1421703506159524</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9168847540607935</v>
+        <v>-0.9236520369815773</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9244903134202807</v>
+        <v>-0.9380661006227576</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8001275527340603</v>
+        <v>-0.8353332354327202</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4916877657599543</v>
+        <v>-0.4953020722364303</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5494014412142025</v>
+        <v>-0.511063974695372</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5416479556646352</v>
+        <v>-0.5844016264631372</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5444376486654791</v>
+        <v>-0.5903542770242324</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6355973703079907</v>
+        <v>-0.6240437035665017</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5940991325929617</v>
+        <v>-0.5963030139529096</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.490025287482419</v>
+        <v>0.4081264401051359</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4291506692023796</v>
+        <v>0.2694729869370163</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4547699265293165</v>
+        <v>0.2660332083644881</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.828703870162413</v>
+        <v>1.861253274870752</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.871687151564188</v>
+        <v>1.91004642152565</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.397563978089738</v>
+        <v>1.068426344014855</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.698840127608672</v>
+        <v>0.6062800211917082</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5495780181984157</v>
+        <v>0.6235470608352068</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3115644062861008</v>
+        <v>0.3503428646681748</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.015317890787527</v>
+        <v>-1.349008303572337</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.288777756867888</v>
+        <v>-2.242154308658253</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.685195001209844</v>
+        <v>-1.864108930014031</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.384988553834204</v>
+        <v>-1.373215134802775</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.850009811998552</v>
+        <v>-1.054416774119113</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.6499904586578089</v>
+        <v>-0.6933765444906207</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.7174083990271777</v>
+        <v>-0.6496207198525238</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.8955544087640783</v>
+        <v>-0.907648379861171</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.557663930123563</v>
+        <v>-0.5637325539703626</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.495675295221777</v>
+        <v>3.239155065365371</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.62131993848886</v>
+        <v>1.588642715009707</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.715622374412696</v>
+        <v>1.703083920706719</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.826965711514892</v>
+        <v>3.546012119154464</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.537600556766694</v>
+        <v>4.400129625815971</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.70428452244307</v>
+        <v>3.578139648073105</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.654204419851469</v>
+        <v>2.763934001102628</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.350812845661333</v>
+        <v>2.406602111850326</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.237291333849657</v>
+        <v>2.128776679167691</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5259375535822994</v>
+        <v>-0.6343661247782615</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8481768618721566</v>
+        <v>-0.8533959246333369</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6453072481473514</v>
+        <v>-0.6446558071804209</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3962661914206231</v>
+        <v>-0.3846376430082198</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2512978856330248</v>
+        <v>-0.3381136695584335</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2135965343739896</v>
+        <v>-0.190244411333581</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2882645695454375</v>
+        <v>-0.2496866355481989</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3444617152412461</v>
+        <v>-0.3246791612180291</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1930247088580919</v>
+        <v>-0.2155362628237416</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.135269819596737</v>
+        <v>4.553697793832661</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.939874264473827</v>
+        <v>2.73079588294144</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.00983412556819</v>
+        <v>2.95702128222349</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.566612194051776</v>
+        <v>2.491114049317659</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3.079531318821423</v>
+        <v>2.822321357339034</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.414253754251193</v>
+        <v>2.218794633905237</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.70438832225342</v>
+        <v>2.121826460948656</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.644170116783329</v>
+        <v>1.848764967948615</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.66379658877526</v>
+        <v>1.502797512711746</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-0.7386625415900676</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.2864749769221728</v>
+        <v>-0.2864749769221735</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.881134774974261</v>
+        <v>-2.750156550234405</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.258310719968892</v>
+        <v>-2.572154939771439</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.708716993053223</v>
+        <v>-2.629029135202142</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.792442483561076</v>
+        <v>-5.575240633616723</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.995953905642498</v>
+        <v>-5.066609093412659</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.233489361117272</v>
+        <v>-4.3863420689496</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.407630718988867</v>
+        <v>-3.50869702247804</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.426946421416359</v>
+        <v>-3.430997819846946</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.748086584913005</v>
+        <v>-3.042142892184371</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.415240718002287</v>
+        <v>3.611549315203439</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.82847341509475</v>
+        <v>3.432199966939373</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.843913280287836</v>
+        <v>3.004841572655983</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.643439311614271</v>
+        <v>1.695340753262853</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.382430426517026</v>
+        <v>2.195165205977003</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.305309896284006</v>
+        <v>2.332831556279832</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.711800308542459</v>
+        <v>1.578971085972834</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.817282084239459</v>
+        <v>1.760913136133341</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.725586985645141</v>
+        <v>1.774681919324681</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.1407770562222088</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.05459746726240514</v>
+        <v>-0.05459746726240527</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6843522071159397</v>
+        <v>-0.6649142203634234</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6990231383284919</v>
+        <v>-0.5941129891282181</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5720800536869616</v>
+        <v>-0.5919962094304866</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6377949437201711</v>
+        <v>-0.6214773574260531</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5650833835930203</v>
+        <v>-0.5985626126980388</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4657062888243501</v>
+        <v>-0.4512665974659067</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5261671331459296</v>
+        <v>-0.5330951820461199</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5201818326988763</v>
+        <v>-0.5174046978669821</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3931236150853065</v>
+        <v>-0.4206048049118073</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.597073444565694</v>
+        <v>2.817553714986809</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.230558059249831</v>
+        <v>3.09221733836732</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.645629425902623</v>
+        <v>2.96122922670507</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3881116358935179</v>
+        <v>0.4095987337277179</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5193289049258871</v>
+        <v>0.486094584302124</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5178669551271602</v>
+        <v>0.508218382867719</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4905561322220194</v>
+        <v>0.4270485253403978</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.46729519381144</v>
+        <v>0.4250064133902909</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4389719198637391</v>
+        <v>0.5017362804457595</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>-0.7132056048195432</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.7574663454494504</v>
+        <v>-0.7574663454494507</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.796437953957228</v>
+        <v>-1.704965604625151</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.98857443962193</v>
+        <v>-1.925258670321382</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.388029534419097</v>
+        <v>-2.24667754608047</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.865700043045895</v>
+        <v>-0.8536467987203749</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.10685660823268</v>
+        <v>-1.122175853622053</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.8544738249402545</v>
+        <v>-0.829854258572204</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.061851556989648</v>
+        <v>-1.133444537647257</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.315704617192314</v>
+        <v>-1.282180656008604</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.315193842988826</v>
+        <v>-1.295758796801163</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.05845943345152187</v>
+        <v>-0.02495167146515812</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.3017382242698559</v>
+        <v>-0.2449238749401158</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.5343211618686934</v>
+        <v>-0.5025663106913802</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.7222874943124841</v>
+        <v>0.7343385485976308</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.4663092727418686</v>
+        <v>0.4451306324759751</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.6768291481188795</v>
+        <v>0.5812259767818186</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.1417389216942168</v>
+        <v>0.1516542140367989</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.1782864317156767</v>
+        <v>-0.1188529457204577</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.1492011038659584</v>
+        <v>-0.1703882594892918</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.3011005971621801</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.379485915472423</v>
+        <v>-0.3794859154724231</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.004522008377802515</v>
@@ -2267,7 +2267,7 @@
         <v>-0.2188701147746361</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.232452948835691</v>
+        <v>-0.2324529488356911</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4215725009114563</v>
+        <v>-0.4100223505282042</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4737736621191448</v>
+        <v>-0.4617964241509317</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5589028233405143</v>
+        <v>-0.5301912855383463</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2713905667252039</v>
+        <v>-0.2654630039221911</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3516757571020952</v>
+        <v>-0.3529527503641336</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2623790130648371</v>
+        <v>-0.2684633163152172</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2909001479283963</v>
+        <v>-0.3119784312423864</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3684678007331269</v>
+        <v>-0.3670377334318136</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3656495920453522</v>
+        <v>-0.3580087194072601</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.01600169154488697</v>
+        <v>0.0004790600929207239</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.08551591958569632</v>
+        <v>-0.06479422144877373</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1512290701817539</v>
+        <v>-0.1313096068445858</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2987969791930275</v>
+        <v>0.3072561807066807</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1943548591052209</v>
+        <v>0.1796350575602264</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2999337809801315</v>
+        <v>0.2527459551748208</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.05029898906743797</v>
+        <v>0.04496738422467082</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.05890909784524048</v>
+        <v>-0.04375082697347493</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.05037873154240372</v>
+        <v>-0.05472345819408643</v>
       </c>
     </row>
     <row r="52">
